--- a/docs/assets/disciplinas/LOQ4093.xlsx
+++ b/docs/assets/disciplinas/LOQ4093.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Visão integrada sobre petróleo e gás natural, desde a origem até o processamento primário. Descrições, características e aplicações dos derivados do petróleo. Processo e esquemas de refino e processamento do gás natural.</t>
+    <t>1285870 - Marcos Villela Barcza</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -76,32 +76,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1285870 - Marcos Villela Barcza</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1.Petróleo: histórico, constituinte, composição e classificação 
-2.Geologia do petróleo: origem.
-3.Prospecção de petróleo: métodos geológicos, potenciais, sísmicos; 
-4.Perfuração: equipamentos, operações;
-5.Completação e reservatórios: tipos, etapas, equipamentos, reservatórios;
-6.Elevação: elevação natural, sistemas de bombeamentos;
-7.Processamento primário: separação do gás natural, tratamento do óleo, tratamento da água, unidade de processamento de gás natural;
-8.Derivados do petróleo: tipos, características, gás liquefeito de petróleo, gasolina automotiva, querosene de aviação, óleo diesel, óleos combustíveis industriais, óleos combustíveis marítimos, produtos especiais;
-9.Processos de refino: objetivo, tipos de processos, esquemas de refino.
-9.1- Destilação de petróleo: equipamentos, esquemas típicos, descrição e variáveis do processo;
-9.2- Desasfaltação: carga, descrição e variáveis do processo, produtos;
-9.3- Coqueamento retardado: carga, descrição e variáveis do processo, produtos;
-9.4- Craqueamento catalítico: carga, descrição e variáveis do processo, produtos;
-9.5- Hidrorrefino: carga, descrição e variáveis do processo, produtos;
-9.6- Reforma catalítica: carga, descrição e variáveis do processo, produtos;
-9.7- Alquilação e isomerização: carga, descrição e variáveis do processo, produtos;
-9.8- Tratamento de derivados: tratamento com aminas, tratamentos cáusticos;
-9.9- Geração de hidrogênio: carga, descrição e variáveis do processo;
-9.10- Recuperação de Enxofre: Processo Claus.
-10.Óleos básicos lubrificantes e parafinas: carga, descrição e variáveis do processo.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -110,9 +88,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Petróleo: histórico, constituinte, composição e classificação; Geologia do petróleo: origem; Prospecção de petróleo: métodos geológicos, potenciais, sísmicos; Perfuração: equipamentos, operações; Completação e reservatórios: tipos, etapas, equipamentos, reservatórios; Elevação: elevação natural, bombeios; Processamento primário: separação do gás natural, tratamento do óleo, tratamento da água, unidade de processamento de gás natural; Derivados do petróleo: tipos, características, gás liquefeito de petróleo, gasolina automotiva, querosene de aviação, óleo diesel, óleos combustíveis industriais, óleos combustíveis marítimos, produtos especiais; Processos de refino: objetivo, tipos de processos, esquemas de refino; Destilação de petróleo: equipamentos, esquemas típicos, descrição e variáveis do processo; Desasfaltação: carga, descrição e variáveis do processo, produtos; Coqueamento retardado: carga, descrição e variáveis do processo, produtos; Craqueamento catalítico: carga, descrição e variáveis do processo, produtos; Hidrorrefino: carga, descrição e variáveis do processo, produtos; Reforma catalítica: carga, descrição e variáveis do processo, produtos; Alquilação e isomerização: carga, descrição e variáveis do processo, produtos; Tratamento de derivados: tratamento com aminas, tratamentos cáusticos; Geração de hidrogênio: carga, descrição e variáveis do processo; Recuperação de Enxofre: Processo Claus; Óleos básicos lubrificantes e parafinas: carga, descrição e variáveis do processo.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -122,30 +97,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, desenvolvimento de exercícios em sala e fora de sala de aula, discussão de casos práticos e seminários</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Provas, avaliação através de exercícios ou casos práticos elaborados fora de sala de aula.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>a)Speight, J. G., The Chemistry and Technology of Petroleum, CRC Press, 4ª Edição, 2007;
-b)Thomas, J. E. (Organizador), Fundamentos de Engenharia de Petróleo, Editora Interciência, 2ª Edição, 2004;
-c)Brasil, N. I., Araújo, M. A. S., Souza, E. C. M, Processamento de Petróleo e Gás, Editora LTC, 1ª Edição, 2012;
-d)Fundamentos do Refino do Petróleo  Tecnologia e Economia, Szklo, A. S., Uller, V. C., Bonfá, M. H. P., Editora Interciência, 3ª Edição, 2012.
-e)Oil and Gas Journal;
-f)Revista Petro &amp; Química.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -508,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,106 +594,98 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4093.xlsx
+++ b/docs/assets/disciplinas/LOQ4093.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,19 +67,41 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Visão integrada sobre petróleo e gás natural, desde a origem até o processamento primário. Descrições, características e aplicações dos derivados do petróleo. Processo e esquemas de refino e processamento do gás natural.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1285870 - Marcos Villela Barcza</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1.Petróleo: histórico, constituinte, composição e classificação 
+2.Geologia do petróleo: origem.
+3.Prospecção de petróleo: métodos geológicos, potenciais, sísmicos; 
+4.Perfuração: equipamentos, operações;
+5.Completação e reservatórios: tipos, etapas, equipamentos, reservatórios;
+6.Elevação: elevação natural, sistemas de bombeamentos;
+7.Processamento primário: separação do gás natural, tratamento do óleo, tratamento da água, unidade de processamento de gás natural;
+8.Derivados do petróleo: tipos, características, gás liquefeito de petróleo, gasolina automotiva, querosene de aviação, óleo diesel, óleos combustíveis industriais, óleos combustíveis marítimos, produtos especiais;
+9.Processos de refino: objetivo, tipos de processos, esquemas de refino.
+9.1- Destilação de petróleo: equipamentos, esquemas típicos, descrição e variáveis do processo;
+9.2- Desasfaltação: carga, descrição e variáveis do processo, produtos;
+9.3- Coqueamento retardado: carga, descrição e variáveis do processo, produtos;
+9.4- Craqueamento catalítico: carga, descrição e variáveis do processo, produtos;
+9.5- Hidrorrefino: carga, descrição e variáveis do processo, produtos;
+9.6- Reforma catalítica: carga, descrição e variáveis do processo, produtos;
+9.7- Alquilação e isomerização: carga, descrição e variáveis do processo, produtos;
+9.8- Tratamento de derivados: tratamento com aminas, tratamentos cáusticos;
+9.9- Geração de hidrogênio: carga, descrição e variáveis do processo;
+9.10- Recuperação de Enxofre: Processo Claus.
+10.Óleos básicos lubrificantes e parafinas: carga, descrição e variáveis do processo.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,6 +110,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Petróleo: histórico, constituinte, composição e classificação; Geologia do petróleo: origem; Prospecção de petróleo: métodos geológicos, potenciais, sísmicos; Perfuração: equipamentos, operações; Completação e reservatórios: tipos, etapas, equipamentos, reservatórios; Elevação: elevação natural, bombeios; Processamento primário: separação do gás natural, tratamento do óleo, tratamento da água, unidade de processamento de gás natural; Derivados do petróleo: tipos, características, gás liquefeito de petróleo, gasolina automotiva, querosene de aviação, óleo diesel, óleos combustíveis industriais, óleos combustíveis marítimos, produtos especiais; Processos de refino: objetivo, tipos de processos, esquemas de refino; Destilação de petróleo: equipamentos, esquemas típicos, descrição e variáveis do processo; Desasfaltação: carga, descrição e variáveis do processo, produtos; Coqueamento retardado: carga, descrição e variáveis do processo, produtos; Craqueamento catalítico: carga, descrição e variáveis do processo, produtos; Hidrorrefino: carga, descrição e variáveis do processo, produtos; Reforma catalítica: carga, descrição e variáveis do processo, produtos; Alquilação e isomerização: carga, descrição e variáveis do processo, produtos; Tratamento de derivados: tratamento com aminas, tratamentos cáusticos; Geração de hidrogênio: carga, descrição e variáveis do processo; Recuperação de Enxofre: Processo Claus; Óleos básicos lubrificantes e parafinas: carga, descrição e variáveis do processo.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,22 +122,30 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, desenvolvimento de exercícios em sala e fora de sala de aula, discussão de casos práticos e seminários</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, desenvolvimento de exercícios em sala e fora de sala de aula, discussão de casos práticos e seminários</t>
+    <t>Provas, avaliação através de exercícios ou casos práticos elaborados fora de sala de aula.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Provas, avaliação através de exercícios ou casos práticos elaborados fora de sala de aula.</t>
+    <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Frequência mínima de 70% e nota igual ou superior a 3,00 e inferior a 5,00 possibilita prova de recuperação.</t>
+    <t>a)Speight, J. G., The Chemistry and Technology of Petroleum, CRC Press, 4ª Edição, 2007;
+b)Thomas, J. E. (Organizador), Fundamentos de Engenharia de Petróleo, Editora Interciência, 2ª Edição, 2004;
+c)Brasil, N. I., Araújo, M. A. S., Souza, E. C. M, Processamento de Petróleo e Gás, Editora LTC, 1ª Edição, 2012;
+d)Fundamentos do Refino do Petróleo  Tecnologia e Economia, Szklo, A. S., Uller, V. C., Bonfá, M. H. P., Editora Interciência, 3ª Edição, 2012.
+e)Oil and Gas Journal;
+f)Revista Petro &amp; Química.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -475,13 +508,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -594,98 +627,106 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
